--- a/BalanceSheet/MKC_bal.xlsx
+++ b/BalanceSheet/MKC_bal.xlsx
@@ -2616,7 +2616,7 @@
         <v>740000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-11200000.0</v>
+        <v>773000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>704000000.0</v>
